--- a/data/case1/16/Qlm2_4.xlsx
+++ b/data/case1/16/Qlm2_4.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.07572472021161758</v>
+        <v>-0.075632155939885592</v>
       </c>
       <c r="B1" s="0">
-        <v>0.075323121033534335</v>
+        <v>0.075228601081782642</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.084777804593148431</v>
+        <v>-0.083213360374719159</v>
       </c>
       <c r="B2" s="0">
-        <v>0.084157305944257743</v>
+        <v>0.082574051431584472</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.09452107817642208</v>
+        <v>-0.093187942962723369</v>
       </c>
       <c r="B3" s="0">
-        <v>0.094332126542942873</v>
+        <v>0.092993391372539591</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.08633212680607194</v>
+        <v>-0.084993391506566596</v>
       </c>
       <c r="B4" s="0">
-        <v>0.085972590532652049</v>
+        <v>0.084623746673575084</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.082972590676424929</v>
+        <v>-0.081623746745551173</v>
       </c>
       <c r="B5" s="0">
-        <v>0.081749030023166469</v>
+        <v>0.080372466115737673</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.017465004478641077</v>
+        <v>0.018860305832472335</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.017537379628480565</v>
+        <v>-0.018945040606917374</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.027537379245392124</v>
+        <v>0.028945040415603529</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.027553070634714683</v>
+        <v>-0.028964513430980166</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.037553070261008958</v>
+        <v>0.038964513244750698</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.037620841102779856</v>
+        <v>-0.039038343040094681</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.039620840970557847</v>
+        <v>0.041038342977747</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.039698597646385281</v>
+        <v>-0.041120849876236321</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.041698597538042392</v>
+        <v>0.043120849825807994</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.041698801561134147</v>
+        <v>-0.043125737608711745</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0031516841671859197</v>
+        <v>0.00099455094058864546</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.0031507914458206443</v>
+        <v>-0.00099408673406475856</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0066507912982487483</v>
+        <v>0.0044940866627483089</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0066572957224519946</v>
+        <v>-0.0045003199801412208</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.010157295580367709</v>
+        <v>0.0080003199109626166</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.010167381862889791</v>
+        <v>-0.0080112816160404776</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.018167381600047605</v>
+        <v>0.016011281484599849</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.018196705676816194</v>
+        <v>-0.016041805821915389</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.019196705611710385</v>
+        <v>0.017041805791581766</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.019241103655255998</v>
+        <v>-0.017087407573447955</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.021241103570388553</v>
+        <v>0.019087407532472955</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.02144269212006833</v>
+        <v>-0.019290105704546257</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.023442692056615755</v>
+        <v>0.021290105672449933</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.023528491166169729</v>
+        <v>-0.021377727898507892</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0062273154915537532</v>
+        <v>0.006669596945126699</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.0063372184859069591</v>
+        <v>-0.0067892754254330612</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012087935979903541</v>
+        <v>-0.012090156322797974</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012013095646235428</v>
+        <v>0.012015179461842163</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080130957717390316</v>
+        <v>-0.0080151795250653635</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080051544124746243</v>
+        <v>0.0080054032820413568</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040051545396817545</v>
+        <v>-0.0040054033460714678</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999998726605313</v>
+        <v>0.003999999935691001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.014363772094208471</v>
+        <v>0.014613891461907613</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.014500142872490684</v>
+        <v>-0.014755483848691853</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.01950014270976741</v>
+        <v>0.019755483766768833</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.019766146173521904</v>
+        <v>-0.0200284492189029</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020096609051629244</v>
+        <v>-0.020097433986957292</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999425015069</v>
+        <v>0.019999999706506344</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.097214034666812665</v>
+        <v>-0.097232772027654235</v>
       </c>
       <c r="B25" s="0">
-        <v>0.097098139128904748</v>
+        <v>0.097111815061749596</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.094598139316973473</v>
+        <v>-0.094611815153333723</v>
       </c>
       <c r="B26" s="0">
-        <v>0.094443904438358928</v>
+        <v>0.094454000954023343</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.091943904641584862</v>
+        <v>-0.091954001052840351</v>
       </c>
       <c r="B27" s="0">
-        <v>0.090996922148232517</v>
+        <v>0.091005761193005519</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.088996922410342627</v>
+        <v>-0.089005761317936027</v>
       </c>
       <c r="B28" s="0">
-        <v>0.088349611590007093</v>
+        <v>0.088356903051618474</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081349612038184027</v>
+        <v>-0.081356903269556469</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081164355750018125</v>
+        <v>0.08116980590382461</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021164357677465606</v>
+        <v>-0.021169806880564579</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021015801095209508</v>
+        <v>0.021020452382436883</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014015801581866327</v>
+        <v>-0.014020452618883184</v>
       </c>
       <c r="B31" s="0">
-        <v>0.013999608981713152</v>
+        <v>0.014000437864311266</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0039996095526824149</v>
+        <v>-0.0040004381440255088</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999995942334721</v>
+        <v>0.0039999998048596552</v>
       </c>
     </row>
   </sheetData>
